--- a/srpp/params/qpp_history.xlsx
+++ b/srpp/params/qpp_history.xlsx
@@ -1,32 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/UQAM/git/cpp/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\srpp\srpp\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B32A96-B404-43D6-8C36-C66565A23819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52280" yWindow="1160" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qppyear" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -158,12 +162,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -317,6 +321,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -671,7 +681,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -694,6 +704,8 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1050,24 +1062,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM1" sqref="AM1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B55:F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="18" width="10.83203125" style="2"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16" width="10.875" style="1"/>
+    <col min="17" max="18" width="10.875" style="2"/>
+    <col min="19" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1966</v>
       </c>
@@ -1312,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1967</v>
       </c>
@@ -1329,7 +1341,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F54" si="0">D3+E3</f>
+        <f t="shared" ref="F3:F57" si="0">D3+E3</f>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G3" s="10">
@@ -1435,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1968</v>
       </c>
@@ -1558,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1969</v>
       </c>
@@ -1681,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1970</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1971</v>
       </c>
@@ -1927,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1972</v>
       </c>
@@ -2050,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1973</v>
       </c>
@@ -2173,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1974</v>
       </c>
@@ -2296,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1975</v>
       </c>
@@ -2419,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1976</v>
       </c>
@@ -2542,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1977</v>
       </c>
@@ -2665,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1978</v>
       </c>
@@ -2788,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1979</v>
       </c>
@@ -2911,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1980</v>
       </c>
@@ -3034,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1981</v>
       </c>
@@ -3157,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1982</v>
       </c>
@@ -3280,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1983</v>
       </c>
@@ -3403,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1984</v>
       </c>
@@ -3526,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1985</v>
       </c>
@@ -3649,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1986</v>
       </c>
@@ -3772,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1987</v>
       </c>
@@ -3895,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1988</v>
       </c>
@@ -4018,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1989</v>
       </c>
@@ -4141,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1990</v>
       </c>
@@ -4264,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1991</v>
       </c>
@@ -4387,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1992</v>
       </c>
@@ -4510,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1993</v>
       </c>
@@ -4633,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1994</v>
       </c>
@@ -4756,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1995</v>
       </c>
@@ -4879,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1996</v>
       </c>
@@ -5002,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1997</v>
       </c>
@@ -5125,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1998</v>
       </c>
@@ -5248,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1999</v>
       </c>
@@ -5371,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2000</v>
       </c>
@@ -5494,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2001</v>
       </c>
@@ -5617,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2002</v>
       </c>
@@ -5740,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2003</v>
       </c>
@@ -5863,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2004</v>
       </c>
@@ -5986,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2005</v>
       </c>
@@ -6109,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2006</v>
       </c>
@@ -6232,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2007</v>
       </c>
@@ -6355,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2008</v>
       </c>
@@ -6478,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2009</v>
       </c>
@@ -6601,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2010</v>
       </c>
@@ -6724,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2011</v>
       </c>
@@ -6847,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2012</v>
       </c>
@@ -6970,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2013</v>
       </c>
@@ -7093,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2014</v>
       </c>
@@ -7216,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2015</v>
       </c>
@@ -7340,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2016</v>
       </c>
@@ -7463,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2017</v>
       </c>
@@ -7586,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2018</v>
       </c>
@@ -7709,23 +7721,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>2019</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="20">
         <v>57400</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="20">
         <v>3500</v>
       </c>
-      <c r="D55" s="11">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E55" s="11">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="F55" s="11">
+      <c r="D55" s="21">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="E55" s="21">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="F55" s="10">
         <v>0.108</v>
       </c>
       <c r="G55" s="10">
@@ -7831,24 +7843,23 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>2020</v>
       </c>
-      <c r="B56" s="11">
-        <f>B55*1.0159</f>
-        <v>58312.66</v>
-      </c>
-      <c r="C56" s="11">
+      <c r="B56" s="20">
+        <v>58700</v>
+      </c>
+      <c r="C56" s="20">
         <v>3500</v>
       </c>
-      <c r="D56" s="11">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E56" s="11">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="F56" s="11">
+      <c r="D56" s="21">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E56" s="21">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F56" s="10">
         <v>0.108</v>
       </c>
       <c r="G56" s="10">
@@ -7961,24 +7972,23 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>2021</v>
       </c>
-      <c r="B57" s="11">
-        <f t="shared" ref="B57:B61" si="2">B56*1.0159</f>
-        <v>59239.831294000003</v>
-      </c>
-      <c r="C57" s="11">
+      <c r="B57" s="20">
+        <v>61600</v>
+      </c>
+      <c r="C57" s="20">
         <v>3500</v>
       </c>
-      <c r="D57" s="11">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E57" s="11">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="F57" s="11">
+      <c r="D57" s="21">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E57" s="21">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F57" s="10">
         <v>0.108</v>
       </c>
       <c r="G57" s="10">
@@ -8000,27 +8010,27 @@
         <v>0.15</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" ref="M57:M61" si="3">M56*1.03</f>
+        <f t="shared" ref="M57:M61" si="2">M56*1.03</f>
         <v>526.55649700000004</v>
       </c>
       <c r="N57" s="11">
-        <f t="shared" ref="N57:N61" si="4">N56*1.03</f>
+        <f t="shared" ref="N57:N61" si="3">N56*1.03</f>
         <v>526.55649700000004</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" ref="O57:O61" si="5">O56*1.03</f>
+        <f t="shared" ref="O57:O61" si="4">O56*1.03</f>
         <v>488.91576500000008</v>
       </c>
       <c r="P57" s="11">
-        <f t="shared" ref="P57:P61" si="6">P56*1.03</f>
+        <f t="shared" ref="P57:P61" si="5">P56*1.03</f>
         <v>134.86160800000002</v>
       </c>
       <c r="Q57" s="13">
-        <f t="shared" ref="Q57:R61" si="7">Q56*1.03</f>
+        <f t="shared" ref="Q57:R61" si="6">Q56*1.03</f>
         <v>14698.727064000001</v>
       </c>
       <c r="R57" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14698.727064000001</v>
       </c>
       <c r="S57" s="11">
@@ -8051,7 +8061,7 @@
         <v>0.75</v>
       </c>
       <c r="AB57" s="11">
-        <f t="shared" ref="AB57:AB61" si="8">AB56*1.03</f>
+        <f t="shared" ref="AB57:AB61" si="7">AB56*1.03</f>
         <v>526.58832400000006</v>
       </c>
       <c r="AC57" s="17">
@@ -8091,24 +8101,24 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>2022</v>
       </c>
       <c r="B58" s="11">
-        <f t="shared" si="2"/>
-        <v>60181.744611574606</v>
+        <f t="shared" ref="B57:B61" si="8">B57*1.0159</f>
+        <v>62579.44</v>
       </c>
       <c r="C58" s="11">
         <v>3500</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="17">
         <v>0.108</v>
       </c>
       <c r="G58" s="10">
@@ -8130,27 +8140,27 @@
         <v>0.15</v>
       </c>
       <c r="M58" s="11">
+        <f t="shared" si="2"/>
+        <v>542.35319191000008</v>
+      </c>
+      <c r="N58" s="11">
         <f t="shared" si="3"/>
         <v>542.35319191000008</v>
       </c>
-      <c r="N58" s="11">
+      <c r="O58" s="11">
         <f t="shared" si="4"/>
-        <v>542.35319191000008</v>
-      </c>
-      <c r="O58" s="11">
+        <v>503.58323795000007</v>
+      </c>
+      <c r="P58" s="11">
         <f t="shared" si="5"/>
-        <v>503.58323795000007</v>
-      </c>
-      <c r="P58" s="11">
+        <v>138.90745624000002</v>
+      </c>
+      <c r="Q58" s="13">
         <f t="shared" si="6"/>
-        <v>138.90745624000002</v>
-      </c>
-      <c r="Q58" s="13">
-        <f t="shared" si="7"/>
         <v>15139.688875920001</v>
       </c>
       <c r="R58" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15139.688875920001</v>
       </c>
       <c r="S58" s="11">
@@ -8181,7 +8191,7 @@
         <v>0.75</v>
       </c>
       <c r="AB58" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>542.38597372000004</v>
       </c>
       <c r="AC58" s="17">
@@ -8221,24 +8231,24 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>2023</v>
       </c>
       <c r="B59" s="11">
-        <f t="shared" si="2"/>
-        <v>61138.634350898647</v>
+        <f t="shared" si="8"/>
+        <v>63574.453096000005</v>
       </c>
       <c r="C59" s="11">
         <v>3500</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="17">
         <v>0.108</v>
       </c>
       <c r="G59" s="10">
@@ -8260,27 +8270,27 @@
         <v>0.15</v>
       </c>
       <c r="M59" s="11">
+        <f t="shared" si="2"/>
+        <v>558.62378766730012</v>
+      </c>
+      <c r="N59" s="11">
         <f t="shared" si="3"/>
         <v>558.62378766730012</v>
       </c>
-      <c r="N59" s="11">
+      <c r="O59" s="11">
         <f t="shared" si="4"/>
-        <v>558.62378766730012</v>
-      </c>
-      <c r="O59" s="11">
+        <v>518.69073508850011</v>
+      </c>
+      <c r="P59" s="11">
         <f t="shared" si="5"/>
-        <v>518.69073508850011</v>
-      </c>
-      <c r="P59" s="11">
+        <v>143.07467992720001</v>
+      </c>
+      <c r="Q59" s="13">
         <f t="shared" si="6"/>
-        <v>143.07467992720001</v>
-      </c>
-      <c r="Q59" s="13">
-        <f t="shared" si="7"/>
         <v>15593.879542197601</v>
       </c>
       <c r="R59" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15593.879542197601</v>
       </c>
       <c r="S59" s="11">
@@ -8311,7 +8321,7 @@
         <v>0.75</v>
       </c>
       <c r="AB59" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>558.65755293160009</v>
       </c>
       <c r="AC59" s="17">
@@ -8351,24 +8361,24 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>2024</v>
       </c>
       <c r="B60" s="11">
-        <f t="shared" si="2"/>
-        <v>62110.738637077935</v>
+        <f t="shared" si="8"/>
+        <v>64585.286900226405</v>
       </c>
       <c r="C60" s="11">
         <v>3500</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="17">
         <v>0.108</v>
       </c>
       <c r="G60" s="10">
@@ -8390,27 +8400,27 @@
         <v>0.15</v>
       </c>
       <c r="M60" s="11">
+        <f t="shared" si="2"/>
+        <v>575.3825012973191</v>
+      </c>
+      <c r="N60" s="11">
         <f t="shared" si="3"/>
         <v>575.3825012973191</v>
       </c>
-      <c r="N60" s="11">
+      <c r="O60" s="11">
         <f t="shared" si="4"/>
-        <v>575.3825012973191</v>
-      </c>
-      <c r="O60" s="11">
+        <v>534.25145714115513</v>
+      </c>
+      <c r="P60" s="11">
         <f t="shared" si="5"/>
-        <v>534.25145714115513</v>
-      </c>
-      <c r="P60" s="11">
+        <v>147.36692032501603</v>
+      </c>
+      <c r="Q60" s="13">
         <f t="shared" si="6"/>
-        <v>147.36692032501603</v>
-      </c>
-      <c r="Q60" s="13">
-        <f t="shared" si="7"/>
         <v>16061.695928463529</v>
       </c>
       <c r="R60" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16061.695928463529</v>
       </c>
       <c r="S60" s="11">
@@ -8441,7 +8451,7 @@
         <v>0.75</v>
       </c>
       <c r="AB60" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>575.41727951954806</v>
       </c>
       <c r="AC60" s="17">
@@ -8481,24 +8491,24 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>2025</v>
       </c>
       <c r="B61" s="11">
-        <f t="shared" si="2"/>
-        <v>63098.299381407473</v>
+        <f t="shared" si="8"/>
+        <v>65612.192961940003</v>
       </c>
       <c r="C61" s="11">
         <v>3500</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="17">
         <v>0.108</v>
       </c>
       <c r="G61" s="10">
@@ -8520,27 +8530,27 @@
         <v>0.15</v>
       </c>
       <c r="M61" s="11">
+        <f t="shared" si="2"/>
+        <v>592.64397633623867</v>
+      </c>
+      <c r="N61" s="11">
         <f t="shared" si="3"/>
         <v>592.64397633623867</v>
       </c>
-      <c r="N61" s="11">
+      <c r="O61" s="11">
         <f t="shared" si="4"/>
-        <v>592.64397633623867</v>
-      </c>
-      <c r="O61" s="11">
+        <v>550.27900085538977</v>
+      </c>
+      <c r="P61" s="11">
         <f t="shared" si="5"/>
-        <v>550.27900085538977</v>
-      </c>
-      <c r="P61" s="11">
+        <v>151.78792793476651</v>
+      </c>
+      <c r="Q61" s="13">
         <f t="shared" si="6"/>
-        <v>151.78792793476651</v>
-      </c>
-      <c r="Q61" s="13">
-        <f t="shared" si="7"/>
         <v>16543.546806317434</v>
       </c>
       <c r="R61" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16543.546806317434</v>
       </c>
       <c r="S61" s="11">
@@ -8571,7 +8581,7 @@
         <v>0.75</v>
       </c>
       <c r="AB61" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>592.67979790513448</v>
       </c>
       <c r="AC61" s="17">

--- a/srpp/params/qpp_history.xlsx
+++ b/srpp/params/qpp_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\srpp\srpp\params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80002036\Documents\GitHub\srpp\srpp\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B32A96-B404-43D6-8C36-C66565A23819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE297105-1DB1-46F5-A1D9-1E90EA106136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qppyear" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,6 +327,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -681,7 +688,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -706,52 +713,55 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1066,13 +1076,13 @@
   <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B55:F57"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I55:I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="10.875" style="1"/>
     <col min="17" max="18" width="10.875" style="2"/>
@@ -1341,7 +1351,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F57" si="0">D3+E3</f>
+        <f t="shared" ref="F3:F54" si="0">D3+E3</f>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G3" s="10">
@@ -7731,11 +7741,11 @@
       <c r="C55" s="20">
         <v>3500</v>
       </c>
-      <c r="D55" s="21">
-        <v>5.5500000000000001E-2</v>
-      </c>
-      <c r="E55" s="21">
-        <v>5.5500000000000001E-2</v>
+      <c r="D55" s="10">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E55" s="10">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F55" s="10">
         <v>0.108</v>
@@ -7746,76 +7756,76 @@
       <c r="H55" s="10">
         <v>0.06</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="22">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="20">
         <v>5</v>
       </c>
       <c r="K55" s="12">
         <v>0.25</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="22">
         <v>0.15</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M55" s="22">
         <v>496.33</v>
       </c>
-      <c r="N55" s="11">
+      <c r="N55" s="22">
         <v>496.33</v>
       </c>
-      <c r="O55" s="11">
+      <c r="O55" s="22">
         <v>460.85</v>
       </c>
-      <c r="P55" s="11">
+      <c r="P55" s="22">
         <v>127.12</v>
       </c>
       <c r="Q55" s="13">
         <v>13854.96</v>
       </c>
-      <c r="R55" s="14">
+      <c r="R55" s="24">
         <v>13854.96</v>
       </c>
-      <c r="S55" s="11">
+      <c r="S55" s="20">
         <v>45</v>
       </c>
-      <c r="T55" s="11">
-        <v>65</v>
-      </c>
-      <c r="U55" s="11">
+      <c r="T55" s="20">
+        <v>65</v>
+      </c>
+      <c r="U55" s="20">
         <v>0.375</v>
       </c>
-      <c r="V55" s="11">
+      <c r="V55" s="20">
         <v>0.6</v>
       </c>
-      <c r="W55" s="11">
+      <c r="W55" s="20">
         <v>60</v>
       </c>
-      <c r="X55" s="11">
-        <v>65</v>
-      </c>
-      <c r="Y55" s="11">
+      <c r="X55" s="20">
+        <v>65</v>
+      </c>
+      <c r="Y55" s="20">
         <v>70</v>
       </c>
       <c r="Z55" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA55" s="11">
+      <c r="AA55" s="20">
         <v>0.75</v>
       </c>
-      <c r="AB55" s="11">
+      <c r="AB55" s="22">
         <v>496.36</v>
       </c>
-      <c r="AC55" s="17">
+      <c r="AC55" s="23">
         <v>2.3E-2</v>
       </c>
       <c r="AD55" s="12">
         <v>1</v>
       </c>
-      <c r="AE55" s="17">
+      <c r="AE55" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="AF55" s="11">
+      <c r="AF55" s="22">
         <v>1.5E-3</v>
       </c>
       <c r="AG55" s="12">
@@ -7824,7 +7834,7 @@
       <c r="AH55" s="12">
         <v>0</v>
       </c>
-      <c r="AI55" s="11">
+      <c r="AI55" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AJ55" s="12">
@@ -7853,11 +7863,11 @@
       <c r="C56" s="20">
         <v>3500</v>
       </c>
-      <c r="D56" s="21">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E56" s="21">
-        <v>5.7000000000000002E-2</v>
+      <c r="D56" s="10">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E56" s="10">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F56" s="10">
         <v>0.108</v>
@@ -7868,31 +7878,31 @@
       <c r="H56" s="10">
         <v>0.06</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="22">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="20">
         <v>5</v>
       </c>
       <c r="K56" s="12">
         <v>0.25</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="22">
         <v>0.15</v>
       </c>
-      <c r="M56" s="11">
+      <c r="M56" s="22">
         <f t="shared" ref="M56:R56" si="1">M55*1.03</f>
         <v>511.2199</v>
       </c>
-      <c r="N56" s="11">
+      <c r="N56" s="22">
         <f t="shared" si="1"/>
         <v>511.2199</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O56" s="22">
         <f t="shared" si="1"/>
         <v>474.67550000000006</v>
       </c>
-      <c r="P56" s="11">
+      <c r="P56" s="22">
         <f t="shared" si="1"/>
         <v>130.93360000000001</v>
       </c>
@@ -7900,51 +7910,51 @@
         <f t="shared" si="1"/>
         <v>14270.6088</v>
       </c>
-      <c r="R56" s="14">
+      <c r="R56" s="24">
         <f t="shared" si="1"/>
         <v>14270.6088</v>
       </c>
-      <c r="S56" s="11">
+      <c r="S56" s="20">
         <v>45</v>
       </c>
-      <c r="T56" s="11">
-        <v>65</v>
-      </c>
-      <c r="U56" s="11">
+      <c r="T56" s="20">
+        <v>65</v>
+      </c>
+      <c r="U56" s="20">
         <v>0.375</v>
       </c>
-      <c r="V56" s="11">
+      <c r="V56" s="20">
         <v>0.6</v>
       </c>
-      <c r="W56" s="11">
+      <c r="W56" s="20">
         <v>60</v>
       </c>
-      <c r="X56" s="11">
-        <v>65</v>
-      </c>
-      <c r="Y56" s="11">
+      <c r="X56" s="20">
+        <v>65</v>
+      </c>
+      <c r="Y56" s="20">
         <v>70</v>
       </c>
       <c r="Z56" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA56" s="11">
+      <c r="AA56" s="20">
         <v>0.75</v>
       </c>
-      <c r="AB56" s="11">
+      <c r="AB56" s="22">
         <f>AB55*1.03</f>
         <v>511.25080000000003</v>
       </c>
-      <c r="AC56" s="17">
+      <c r="AC56" s="23">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="AD56" s="12">
         <v>1</v>
       </c>
-      <c r="AE56" s="17">
+      <c r="AE56" s="21">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AF56" s="11">
+      <c r="AF56" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AG56" s="12">
@@ -7953,7 +7963,7 @@
       <c r="AH56" s="12">
         <v>0</v>
       </c>
-      <c r="AI56" s="11">
+      <c r="AI56" s="22">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AJ56" s="12">
@@ -7982,11 +7992,11 @@
       <c r="C57" s="20">
         <v>3500</v>
       </c>
-      <c r="D57" s="21">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E57" s="21">
-        <v>5.8999999999999997E-2</v>
+      <c r="D57" s="10">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E57" s="10">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F57" s="10">
         <v>0.108</v>
@@ -7997,31 +8007,31 @@
       <c r="H57" s="10">
         <v>0.06</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="22">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="20">
         <v>5</v>
       </c>
       <c r="K57" s="12">
         <v>0.25</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="22">
         <v>0.15</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="22">
         <f t="shared" ref="M57:M61" si="2">M56*1.03</f>
         <v>526.55649700000004</v>
       </c>
-      <c r="N57" s="11">
+      <c r="N57" s="22">
         <f t="shared" ref="N57:N61" si="3">N56*1.03</f>
         <v>526.55649700000004</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O57" s="22">
         <f t="shared" ref="O57:O61" si="4">O56*1.03</f>
         <v>488.91576500000008</v>
       </c>
-      <c r="P57" s="11">
+      <c r="P57" s="22">
         <f t="shared" ref="P57:P61" si="5">P56*1.03</f>
         <v>134.86160800000002</v>
       </c>
@@ -8029,51 +8039,51 @@
         <f t="shared" ref="Q57:R61" si="6">Q56*1.03</f>
         <v>14698.727064000001</v>
       </c>
-      <c r="R57" s="14">
+      <c r="R57" s="24">
         <f t="shared" si="6"/>
         <v>14698.727064000001</v>
       </c>
-      <c r="S57" s="11">
+      <c r="S57" s="20">
         <v>45</v>
       </c>
-      <c r="T57" s="11">
-        <v>65</v>
-      </c>
-      <c r="U57" s="11">
+      <c r="T57" s="20">
+        <v>65</v>
+      </c>
+      <c r="U57" s="20">
         <v>0.375</v>
       </c>
-      <c r="V57" s="11">
+      <c r="V57" s="20">
         <v>0.6</v>
       </c>
-      <c r="W57" s="11">
+      <c r="W57" s="20">
         <v>60</v>
       </c>
-      <c r="X57" s="11">
-        <v>65</v>
-      </c>
-      <c r="Y57" s="11">
+      <c r="X57" s="20">
+        <v>65</v>
+      </c>
+      <c r="Y57" s="20">
         <v>70</v>
       </c>
       <c r="Z57" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA57" s="11">
+      <c r="AA57" s="20">
         <v>0.75</v>
       </c>
-      <c r="AB57" s="11">
+      <c r="AB57" s="22">
         <f t="shared" ref="AB57:AB61" si="7">AB56*1.03</f>
         <v>526.58832400000006</v>
       </c>
-      <c r="AC57" s="17">
+      <c r="AC57" s="23">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="AD57" s="12">
         <v>1</v>
       </c>
-      <c r="AE57" s="17">
+      <c r="AE57" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AF57" s="11">
+      <c r="AF57" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG57" s="12">
@@ -8082,7 +8092,7 @@
       <c r="AH57" s="12">
         <v>0</v>
       </c>
-      <c r="AI57" s="11">
+      <c r="AI57" s="22">
         <v>0.01</v>
       </c>
       <c r="AJ57" s="12">
@@ -8106,7 +8116,7 @@
         <v>2022</v>
       </c>
       <c r="B58" s="11">
-        <f t="shared" ref="B57:B61" si="8">B57*1.0159</f>
+        <f t="shared" ref="B58:B61" si="8">B57*1.0159</f>
         <v>62579.44</v>
       </c>
       <c r="C58" s="11">

--- a/srpp/params/qpp_history.xlsx
+++ b/srpp/params/qpp_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80002036\Documents\GitHub\srpp\srpp\params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Dropbox/Mon Mac (EMONE)/Documents/GitHub/srpp/srpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE297105-1DB1-46F5-A1D9-1E90EA106136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6E91BB-0E3D-AC48-AC4D-B1ED8025149B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qppyear" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -167,7 +158,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -688,7 +679,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -715,7 +706,8 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1076,20 +1068,22 @@
   <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I55:I57"/>
+      <selection pane="bottomRight" activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16" width="10.875" style="1"/>
-    <col min="17" max="18" width="10.875" style="2"/>
-    <col min="19" max="16384" width="10.875" style="1"/>
+    <col min="1" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="18" width="10.83203125" style="2"/>
+    <col min="19" max="31" width="10.83203125" style="1"/>
+    <col min="32" max="32" width="10.83203125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" s="4" customFormat="1">
       <c r="A2" s="3">
         <v>1966</v>
       </c>
@@ -1334,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" s="4" customFormat="1">
       <c r="A3" s="3">
         <v>1967</v>
       </c>
@@ -1457,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" s="4" customFormat="1">
       <c r="A4" s="3">
         <v>1968</v>
       </c>
@@ -1580,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" s="4" customFormat="1">
       <c r="A5" s="3">
         <v>1969</v>
       </c>
@@ -1703,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" s="4" customFormat="1">
       <c r="A6" s="3">
         <v>1970</v>
       </c>
@@ -1826,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" s="4" customFormat="1">
       <c r="A7" s="3">
         <v>1971</v>
       </c>
@@ -1949,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" s="4" customFormat="1">
       <c r="A8" s="3">
         <v>1972</v>
       </c>
@@ -2072,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" s="4" customFormat="1">
       <c r="A9" s="3">
         <v>1973</v>
       </c>
@@ -2195,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" s="4" customFormat="1">
       <c r="A10" s="3">
         <v>1974</v>
       </c>
@@ -2318,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" s="4" customFormat="1">
       <c r="A11" s="3">
         <v>1975</v>
       </c>
@@ -2441,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" s="4" customFormat="1">
       <c r="A12" s="3">
         <v>1976</v>
       </c>
@@ -2564,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" s="4" customFormat="1">
       <c r="A13" s="3">
         <v>1977</v>
       </c>
@@ -2687,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" s="4" customFormat="1">
       <c r="A14" s="3">
         <v>1978</v>
       </c>
@@ -2810,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" s="4" customFormat="1">
       <c r="A15" s="3">
         <v>1979</v>
       </c>
@@ -2933,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" s="4" customFormat="1">
       <c r="A16" s="3">
         <v>1980</v>
       </c>
@@ -3056,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" s="4" customFormat="1">
       <c r="A17" s="3">
         <v>1981</v>
       </c>
@@ -3179,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" s="4" customFormat="1">
       <c r="A18" s="3">
         <v>1982</v>
       </c>
@@ -3302,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" s="4" customFormat="1">
       <c r="A19" s="3">
         <v>1983</v>
       </c>
@@ -3425,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" s="4" customFormat="1">
       <c r="A20" s="3">
         <v>1984</v>
       </c>
@@ -3548,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" s="4" customFormat="1">
       <c r="A21" s="3">
         <v>1985</v>
       </c>
@@ -3671,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" s="4" customFormat="1">
       <c r="A22" s="3">
         <v>1986</v>
       </c>
@@ -3794,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" s="4" customFormat="1">
       <c r="A23" s="3">
         <v>1987</v>
       </c>
@@ -3917,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" s="4" customFormat="1">
       <c r="A24" s="3">
         <v>1988</v>
       </c>
@@ -4040,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" s="4" customFormat="1">
       <c r="A25" s="3">
         <v>1989</v>
       </c>
@@ -4163,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" s="4" customFormat="1">
       <c r="A26" s="3">
         <v>1990</v>
       </c>
@@ -4286,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" s="4" customFormat="1">
       <c r="A27" s="3">
         <v>1991</v>
       </c>
@@ -4409,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" s="4" customFormat="1">
       <c r="A28" s="3">
         <v>1992</v>
       </c>
@@ -4532,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" s="4" customFormat="1">
       <c r="A29" s="3">
         <v>1993</v>
       </c>
@@ -4655,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" s="4" customFormat="1">
       <c r="A30" s="3">
         <v>1994</v>
       </c>
@@ -4778,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" s="4" customFormat="1">
       <c r="A31" s="3">
         <v>1995</v>
       </c>
@@ -4901,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" s="4" customFormat="1">
       <c r="A32" s="3">
         <v>1996</v>
       </c>
@@ -5024,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" s="4" customFormat="1">
       <c r="A33" s="3">
         <v>1997</v>
       </c>
@@ -5147,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" s="4" customFormat="1">
       <c r="A34" s="3">
         <v>1998</v>
       </c>
@@ -5270,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" s="4" customFormat="1">
       <c r="A35" s="3">
         <v>1999</v>
       </c>
@@ -5393,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" s="4" customFormat="1">
       <c r="A36" s="3">
         <v>2000</v>
       </c>
@@ -5516,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" s="4" customFormat="1">
       <c r="A37" s="3">
         <v>2001</v>
       </c>
@@ -5639,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" s="4" customFormat="1">
       <c r="A38" s="3">
         <v>2002</v>
       </c>
@@ -5762,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" s="4" customFormat="1">
       <c r="A39" s="3">
         <v>2003</v>
       </c>
@@ -5885,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" s="4" customFormat="1">
       <c r="A40" s="3">
         <v>2004</v>
       </c>
@@ -6008,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" s="4" customFormat="1">
       <c r="A41" s="3">
         <v>2005</v>
       </c>
@@ -6131,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" s="4" customFormat="1">
       <c r="A42" s="3">
         <v>2006</v>
       </c>
@@ -6254,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" s="4" customFormat="1">
       <c r="A43" s="3">
         <v>2007</v>
       </c>
@@ -6377,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" s="4" customFormat="1">
       <c r="A44" s="3">
         <v>2008</v>
       </c>
@@ -6500,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" s="4" customFormat="1">
       <c r="A45" s="3">
         <v>2009</v>
       </c>
@@ -6623,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" s="4" customFormat="1">
       <c r="A46" s="3">
         <v>2010</v>
       </c>
@@ -6746,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" s="4" customFormat="1">
       <c r="A47" s="3">
         <v>2011</v>
       </c>
@@ -6869,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" s="4" customFormat="1">
       <c r="A48" s="3">
         <v>2012</v>
       </c>
@@ -6992,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" s="4" customFormat="1">
       <c r="A49" s="3">
         <v>2013</v>
       </c>
@@ -7115,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" s="4" customFormat="1">
       <c r="A50" s="3">
         <v>2014</v>
       </c>
@@ -7238,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" s="4" customFormat="1">
       <c r="A51" s="3">
         <v>2015</v>
       </c>
@@ -7362,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" s="4" customFormat="1">
       <c r="A52" s="3">
         <v>2016</v>
       </c>
@@ -7485,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" s="4" customFormat="1">
       <c r="A53" s="3">
         <v>2017</v>
       </c>
@@ -7608,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" s="4" customFormat="1">
       <c r="A54" s="3">
         <v>2018</v>
       </c>
@@ -7731,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" s="4" customFormat="1">
       <c r="A55" s="15">
         <v>2019</v>
       </c>
@@ -7747,7 +7741,7 @@
       <c r="E55" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="21">
         <v>0.108</v>
       </c>
       <c r="G55" s="10">
@@ -7756,7 +7750,7 @@
       <c r="H55" s="10">
         <v>0.06</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I55" s="23">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="J55" s="20">
@@ -7768,22 +7762,22 @@
       <c r="L55" s="22">
         <v>0.15</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="25">
         <v>496.33</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N55" s="25">
         <v>496.33</v>
       </c>
-      <c r="O55" s="22">
+      <c r="O55" s="25">
         <v>460.85</v>
       </c>
-      <c r="P55" s="22">
+      <c r="P55" s="25">
         <v>127.12</v>
       </c>
       <c r="Q55" s="13">
         <v>13854.96</v>
       </c>
-      <c r="R55" s="24">
+      <c r="R55" s="13">
         <v>13854.96</v>
       </c>
       <c r="S55" s="20">
@@ -7813,10 +7807,10 @@
       <c r="AA55" s="20">
         <v>0.75</v>
       </c>
-      <c r="AB55" s="22">
-        <v>496.36</v>
-      </c>
-      <c r="AC55" s="23">
+      <c r="AB55" s="25">
+        <v>496.33</v>
+      </c>
+      <c r="AC55" s="24">
         <v>2.3E-2</v>
       </c>
       <c r="AD55" s="12">
@@ -7825,7 +7819,7 @@
       <c r="AE55" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="AF55" s="22">
+      <c r="AF55" s="24">
         <v>1.5E-3</v>
       </c>
       <c r="AG55" s="12">
@@ -7834,7 +7828,7 @@
       <c r="AH55" s="12">
         <v>0</v>
       </c>
-      <c r="AI55" s="22">
+      <c r="AI55" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AJ55" s="12">
@@ -7853,7 +7847,7 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" s="4" customFormat="1">
       <c r="A56" s="15">
         <v>2020</v>
       </c>
@@ -7869,7 +7863,7 @@
       <c r="E56" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="21">
         <v>0.108</v>
       </c>
       <c r="G56" s="10">
@@ -7878,7 +7872,7 @@
       <c r="H56" s="10">
         <v>0.06</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I56" s="23">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="J56" s="20">
@@ -7890,29 +7884,23 @@
       <c r="L56" s="22">
         <v>0.15</v>
       </c>
-      <c r="M56" s="22">
-        <f t="shared" ref="M56:R56" si="1">M55*1.03</f>
-        <v>511.2199</v>
-      </c>
-      <c r="N56" s="22">
-        <f t="shared" si="1"/>
-        <v>511.2199</v>
-      </c>
-      <c r="O56" s="22">
-        <f t="shared" si="1"/>
-        <v>474.67550000000006</v>
-      </c>
-      <c r="P56" s="22">
-        <f t="shared" si="1"/>
-        <v>130.93360000000001</v>
+      <c r="M56" s="25">
+        <v>505.76</v>
+      </c>
+      <c r="N56" s="25">
+        <v>505.76</v>
+      </c>
+      <c r="O56" s="25">
+        <v>469.61</v>
+      </c>
+      <c r="P56" s="25">
+        <v>129.54</v>
       </c>
       <c r="Q56" s="13">
-        <f t="shared" si="1"/>
-        <v>14270.6088</v>
-      </c>
-      <c r="R56" s="24">
-        <f t="shared" si="1"/>
-        <v>14270.6088</v>
+        <v>14127.6</v>
+      </c>
+      <c r="R56" s="13">
+        <v>14127.6</v>
       </c>
       <c r="S56" s="20">
         <v>45</v>
@@ -7941,12 +7929,11 @@
       <c r="AA56" s="20">
         <v>0.75</v>
       </c>
-      <c r="AB56" s="22">
-        <f>AB55*1.03</f>
-        <v>511.25080000000003</v>
-      </c>
-      <c r="AC56" s="23">
-        <v>1.5900000000000001E-2</v>
+      <c r="AB56" s="25">
+        <v>505.76</v>
+      </c>
+      <c r="AC56" s="24">
+        <v>1.9E-2</v>
       </c>
       <c r="AD56" s="12">
         <v>1</v>
@@ -7954,7 +7941,7 @@
       <c r="AE56" s="21">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AF56" s="22">
+      <c r="AF56" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AG56" s="12">
@@ -7963,7 +7950,7 @@
       <c r="AH56" s="12">
         <v>0</v>
       </c>
-      <c r="AI56" s="22">
+      <c r="AI56" s="24">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AJ56" s="12">
@@ -7982,7 +7969,7 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" s="4" customFormat="1">
       <c r="A57" s="15">
         <v>2021</v>
       </c>
@@ -8007,7 +7994,7 @@
       <c r="H57" s="10">
         <v>0.06</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="23">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="J57" s="20">
@@ -8019,29 +8006,27 @@
       <c r="L57" s="22">
         <v>0.15</v>
       </c>
-      <c r="M57" s="22">
-        <f t="shared" ref="M57:M61" si="2">M56*1.03</f>
-        <v>526.55649700000004</v>
-      </c>
-      <c r="N57" s="22">
-        <f t="shared" ref="N57:N61" si="3">N56*1.03</f>
-        <v>526.55649700000004</v>
-      </c>
-      <c r="O57" s="22">
-        <f t="shared" ref="O57:O61" si="4">O56*1.03</f>
-        <v>488.91576500000008</v>
-      </c>
-      <c r="P57" s="22">
-        <f t="shared" ref="P57:P61" si="5">P56*1.03</f>
-        <v>134.86160800000002</v>
+      <c r="M57" s="25">
+        <f>M56*(1+AC57)</f>
+        <v>510.81759999999997</v>
+      </c>
+      <c r="N57" s="25">
+        <f>N56*(1+AC57)</f>
+        <v>510.81759999999997</v>
+      </c>
+      <c r="O57" s="25">
+        <f>O56*(1+AC57)</f>
+        <v>474.30610000000001</v>
+      </c>
+      <c r="P57" s="25">
+        <f>P56*(1+AC57)</f>
+        <v>130.83539999999999</v>
       </c>
       <c r="Q57" s="13">
-        <f t="shared" ref="Q57:R61" si="6">Q56*1.03</f>
-        <v>14698.727064000001</v>
-      </c>
-      <c r="R57" s="24">
-        <f t="shared" si="6"/>
-        <v>14698.727064000001</v>
+        <v>14499.12</v>
+      </c>
+      <c r="R57" s="13">
+        <v>14499.12</v>
       </c>
       <c r="S57" s="20">
         <v>45</v>
@@ -8070,12 +8055,11 @@
       <c r="AA57" s="20">
         <v>0.75</v>
       </c>
-      <c r="AB57" s="22">
-        <f t="shared" ref="AB57:AB61" si="7">AB56*1.03</f>
-        <v>526.58832400000006</v>
-      </c>
-      <c r="AC57" s="23">
-        <v>1.5900000000000001E-2</v>
+      <c r="AB57" s="25">
+        <v>510.82</v>
+      </c>
+      <c r="AC57" s="24">
+        <v>0.01</v>
       </c>
       <c r="AD57" s="12">
         <v>1</v>
@@ -8083,7 +8067,7 @@
       <c r="AE57" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AF57" s="22">
+      <c r="AF57" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG57" s="12">
@@ -8092,7 +8076,7 @@
       <c r="AH57" s="12">
         <v>0</v>
       </c>
-      <c r="AI57" s="22">
+      <c r="AI57" s="24">
         <v>0.01</v>
       </c>
       <c r="AJ57" s="12">
@@ -8111,12 +8095,12 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" s="4" customFormat="1">
       <c r="A58" s="15">
         <v>2022</v>
       </c>
       <c r="B58" s="11">
-        <f t="shared" ref="B58:B61" si="8">B57*1.0159</f>
+        <f t="shared" ref="B58:B61" si="1">B57*1.0159</f>
         <v>62579.44</v>
       </c>
       <c r="C58" s="11">
@@ -8137,7 +8121,7 @@
       <c r="H58" s="10">
         <v>0.06</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="17">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="J58" s="11">
@@ -8150,28 +8134,28 @@
         <v>0.15</v>
       </c>
       <c r="M58" s="11">
+        <f>M57*(1+$AC58)</f>
+        <v>519.37379480000004</v>
+      </c>
+      <c r="N58" s="11">
+        <f>N57*(1+$AC58)</f>
+        <v>519.37379480000004</v>
+      </c>
+      <c r="O58" s="11">
+        <f t="shared" ref="O58:P61" si="2">O57*(1+$AC58)</f>
+        <v>482.25072717500001</v>
+      </c>
+      <c r="P58" s="11">
         <f t="shared" si="2"/>
-        <v>542.35319191000008</v>
-      </c>
-      <c r="N58" s="11">
+        <v>133.02689294999999</v>
+      </c>
+      <c r="Q58" s="14">
+        <f t="shared" ref="Q58:R61" si="3">Q57*1.03</f>
+        <v>14934.093600000002</v>
+      </c>
+      <c r="R58" s="14">
         <f t="shared" si="3"/>
-        <v>542.35319191000008</v>
-      </c>
-      <c r="O58" s="11">
-        <f t="shared" si="4"/>
-        <v>503.58323795000007</v>
-      </c>
-      <c r="P58" s="11">
-        <f t="shared" si="5"/>
-        <v>138.90745624000002</v>
-      </c>
-      <c r="Q58" s="13">
-        <f t="shared" si="6"/>
-        <v>15139.688875920001</v>
-      </c>
-      <c r="R58" s="14">
-        <f t="shared" si="6"/>
-        <v>15139.688875920001</v>
+        <v>14934.093600000002</v>
       </c>
       <c r="S58" s="11">
         <v>45</v>
@@ -8201,11 +8185,11 @@
         <v>0.75</v>
       </c>
       <c r="AB58" s="11">
-        <f t="shared" si="7"/>
-        <v>542.38597372000004</v>
+        <f t="shared" ref="AB58:AB61" si="4">AB57*1.03</f>
+        <v>526.14459999999997</v>
       </c>
       <c r="AC58" s="17">
-        <v>1.5900000000000001E-2</v>
+        <v>1.6750000000000001E-2</v>
       </c>
       <c r="AD58" s="12">
         <v>1</v>
@@ -8241,12 +8225,12 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" s="4" customFormat="1">
       <c r="A59" s="15">
         <v>2023</v>
       </c>
       <c r="B59" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>63574.453096000005</v>
       </c>
       <c r="C59" s="11">
@@ -8267,7 +8251,7 @@
       <c r="H59" s="10">
         <v>0.06</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="17">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="J59" s="11">
@@ -8280,28 +8264,28 @@
         <v>0.15</v>
       </c>
       <c r="M59" s="11">
+        <f t="shared" ref="M59:M61" si="5">M58*(1+$AC59)</f>
+        <v>528.07330586290004</v>
+      </c>
+      <c r="N59" s="11">
+        <f t="shared" ref="N59:N61" si="6">N58*(1+$AC59)</f>
+        <v>528.07330586290004</v>
+      </c>
+      <c r="O59" s="11">
         <f t="shared" si="2"/>
-        <v>558.62378766730012</v>
-      </c>
-      <c r="N59" s="11">
+        <v>490.32842685518131</v>
+      </c>
+      <c r="P59" s="11">
+        <f t="shared" si="2"/>
+        <v>135.25509340691249</v>
+      </c>
+      <c r="Q59" s="14">
         <f t="shared" si="3"/>
-        <v>558.62378766730012</v>
-      </c>
-      <c r="O59" s="11">
-        <f t="shared" si="4"/>
-        <v>518.69073508850011</v>
-      </c>
-      <c r="P59" s="11">
-        <f t="shared" si="5"/>
-        <v>143.07467992720001</v>
-      </c>
-      <c r="Q59" s="13">
-        <f t="shared" si="6"/>
-        <v>15593.879542197601</v>
+        <v>15382.116408000002</v>
       </c>
       <c r="R59" s="14">
-        <f t="shared" si="6"/>
-        <v>15593.879542197601</v>
+        <f t="shared" si="3"/>
+        <v>15382.116408000002</v>
       </c>
       <c r="S59" s="11">
         <v>45</v>
@@ -8331,11 +8315,11 @@
         <v>0.75</v>
       </c>
       <c r="AB59" s="11">
-        <f t="shared" si="7"/>
-        <v>558.65755293160009</v>
+        <f t="shared" si="4"/>
+        <v>541.92893800000002</v>
       </c>
       <c r="AC59" s="17">
-        <v>1.5900000000000001E-2</v>
+        <v>1.6750000000000001E-2</v>
       </c>
       <c r="AD59" s="12">
         <v>1</v>
@@ -8371,12 +8355,12 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" s="4" customFormat="1">
       <c r="A60" s="15">
         <v>2024</v>
       </c>
       <c r="B60" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>64585.286900226405</v>
       </c>
       <c r="C60" s="11">
@@ -8397,7 +8381,7 @@
       <c r="H60" s="10">
         <v>0.06</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="17">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="J60" s="11">
@@ -8410,28 +8394,28 @@
         <v>0.15</v>
       </c>
       <c r="M60" s="11">
+        <f t="shared" si="5"/>
+        <v>536.91853373610365</v>
+      </c>
+      <c r="N60" s="11">
+        <f t="shared" si="6"/>
+        <v>536.91853373610365</v>
+      </c>
+      <c r="O60" s="11">
         <f t="shared" si="2"/>
-        <v>575.3825012973191</v>
-      </c>
-      <c r="N60" s="11">
+        <v>498.54142800500563</v>
+      </c>
+      <c r="P60" s="11">
+        <f t="shared" si="2"/>
+        <v>137.52061622147829</v>
+      </c>
+      <c r="Q60" s="14">
         <f t="shared" si="3"/>
-        <v>575.3825012973191</v>
-      </c>
-      <c r="O60" s="11">
-        <f t="shared" si="4"/>
-        <v>534.25145714115513</v>
-      </c>
-      <c r="P60" s="11">
-        <f t="shared" si="5"/>
-        <v>147.36692032501603</v>
-      </c>
-      <c r="Q60" s="13">
-        <f t="shared" si="6"/>
-        <v>16061.695928463529</v>
+        <v>15843.579900240002</v>
       </c>
       <c r="R60" s="14">
-        <f t="shared" si="6"/>
-        <v>16061.695928463529</v>
+        <f t="shared" si="3"/>
+        <v>15843.579900240002</v>
       </c>
       <c r="S60" s="11">
         <v>45</v>
@@ -8461,11 +8445,11 @@
         <v>0.75</v>
       </c>
       <c r="AB60" s="11">
-        <f t="shared" si="7"/>
-        <v>575.41727951954806</v>
+        <f t="shared" si="4"/>
+        <v>558.18680614000004</v>
       </c>
       <c r="AC60" s="17">
-        <v>1.5900000000000001E-2</v>
+        <v>1.6750000000000001E-2</v>
       </c>
       <c r="AD60" s="11">
         <v>1.07</v>
@@ -8501,12 +8485,12 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" s="4" customFormat="1">
       <c r="A61" s="15">
         <v>2025</v>
       </c>
       <c r="B61" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>65612.192961940003</v>
       </c>
       <c r="C61" s="11">
@@ -8527,7 +8511,7 @@
       <c r="H61" s="10">
         <v>0.06</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="17">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="J61" s="11">
@@ -8540,28 +8524,28 @@
         <v>0.15</v>
       </c>
       <c r="M61" s="11">
+        <f t="shared" si="5"/>
+        <v>545.91191917618346</v>
+      </c>
+      <c r="N61" s="11">
+        <f t="shared" si="6"/>
+        <v>545.91191917618346</v>
+      </c>
+      <c r="O61" s="11">
         <f t="shared" si="2"/>
-        <v>592.64397633623867</v>
-      </c>
-      <c r="N61" s="11">
+        <v>506.89199692408948</v>
+      </c>
+      <c r="P61" s="11">
+        <f t="shared" si="2"/>
+        <v>139.82408654318806</v>
+      </c>
+      <c r="Q61" s="14">
         <f t="shared" si="3"/>
-        <v>592.64397633623867</v>
-      </c>
-      <c r="O61" s="11">
-        <f t="shared" si="4"/>
-        <v>550.27900085538977</v>
-      </c>
-      <c r="P61" s="11">
-        <f t="shared" si="5"/>
-        <v>151.78792793476651</v>
-      </c>
-      <c r="Q61" s="13">
-        <f t="shared" si="6"/>
-        <v>16543.546806317434</v>
+        <v>16318.887297247202</v>
       </c>
       <c r="R61" s="14">
-        <f t="shared" si="6"/>
-        <v>16543.546806317434</v>
+        <f t="shared" si="3"/>
+        <v>16318.887297247202</v>
       </c>
       <c r="S61" s="11">
         <v>45</v>
@@ -8591,11 +8575,11 @@
         <v>0.75</v>
       </c>
       <c r="AB61" s="11">
-        <f t="shared" si="7"/>
-        <v>592.67979790513448</v>
+        <f t="shared" si="4"/>
+        <v>574.93241032420008</v>
       </c>
       <c r="AC61" s="17">
-        <v>1.5900000000000001E-2</v>
+        <v>1.6750000000000001E-2</v>
       </c>
       <c r="AD61" s="11">
         <v>1.1399999999999999</v>

--- a/srpp/params/qpp_history.xlsx
+++ b/srpp/params/qpp_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Dropbox/Mon Mac (EMONE)/Documents/GitHub/srpp/srpp/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80002036\Documents\GitHub\srpp\srpp\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6E91BB-0E3D-AC48-AC4D-B1ED8025149B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715677D5-67EE-4982-9F29-208CE2CA1C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qppyear" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -158,7 +167,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,13 +303,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -318,13 +320,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -676,10 +671,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -693,7 +688,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -701,13 +695,11 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1068,22 +1060,22 @@
   <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P57" sqref="P57"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="18" width="10.83203125" style="2"/>
-    <col min="19" max="31" width="10.83203125" style="1"/>
-    <col min="32" max="32" width="10.83203125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16" width="10.875" style="1"/>
+    <col min="17" max="18" width="10.875" style="2"/>
+    <col min="19" max="31" width="10.875" style="1"/>
+    <col min="32" max="32" width="10.875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,31 +1163,31 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AK1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AL1" s="20" t="s">
         <v>36</v>
       </c>
       <c r="AM1" s="1" t="s">
@@ -1205,7 +1197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="4" customFormat="1">
+    <row r="2" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1966</v>
       </c>
@@ -1315,10 +1307,10 @@
       <c r="AJ2" s="12">
         <v>0</v>
       </c>
-      <c r="AK2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="18">
+      <c r="AK2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="17">
         <v>0</v>
       </c>
       <c r="AM2" s="9">
@@ -1328,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="4" customFormat="1">
+    <row r="3" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1967</v>
       </c>
@@ -1438,10 +1430,10 @@
       <c r="AJ3" s="12">
         <v>0</v>
       </c>
-      <c r="AK3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="18">
+      <c r="AK3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="17">
         <v>0</v>
       </c>
       <c r="AM3" s="9">
@@ -1451,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="4" customFormat="1">
+    <row r="4" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1968</v>
       </c>
@@ -1561,10 +1553,10 @@
       <c r="AJ4" s="12">
         <v>0</v>
       </c>
-      <c r="AK4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="18">
+      <c r="AK4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="17">
         <v>0</v>
       </c>
       <c r="AM4" s="9">
@@ -1574,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="4" customFormat="1">
+    <row r="5" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1969</v>
       </c>
@@ -1684,10 +1676,10 @@
       <c r="AJ5" s="12">
         <v>0</v>
       </c>
-      <c r="AK5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="18">
+      <c r="AK5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="17">
         <v>0</v>
       </c>
       <c r="AM5" s="9">
@@ -1697,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="4" customFormat="1">
+    <row r="6" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1970</v>
       </c>
@@ -1807,10 +1799,10 @@
       <c r="AJ6" s="12">
         <v>0</v>
       </c>
-      <c r="AK6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="18">
+      <c r="AK6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="17">
         <v>0</v>
       </c>
       <c r="AM6" s="9">
@@ -1820,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="4" customFormat="1">
+    <row r="7" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1971</v>
       </c>
@@ -1930,10 +1922,10 @@
       <c r="AJ7" s="12">
         <v>0</v>
       </c>
-      <c r="AK7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="18">
+      <c r="AK7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="17">
         <v>0</v>
       </c>
       <c r="AM7" s="9">
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="4" customFormat="1">
+    <row r="8" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1972</v>
       </c>
@@ -2053,10 +2045,10 @@
       <c r="AJ8" s="12">
         <v>0</v>
       </c>
-      <c r="AK8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="18">
+      <c r="AK8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="17">
         <v>0</v>
       </c>
       <c r="AM8" s="9">
@@ -2066,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="4" customFormat="1">
+    <row r="9" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1973</v>
       </c>
@@ -2176,10 +2168,10 @@
       <c r="AJ9" s="12">
         <v>0</v>
       </c>
-      <c r="AK9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="18">
+      <c r="AK9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="17">
         <v>0</v>
       </c>
       <c r="AM9" s="9">
@@ -2189,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="4" customFormat="1">
+    <row r="10" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1974</v>
       </c>
@@ -2299,10 +2291,10 @@
       <c r="AJ10" s="12">
         <v>0</v>
       </c>
-      <c r="AK10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="18">
+      <c r="AK10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="17">
         <v>0</v>
       </c>
       <c r="AM10" s="9">
@@ -2312,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="4" customFormat="1">
+    <row r="11" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1975</v>
       </c>
@@ -2422,10 +2414,10 @@
       <c r="AJ11" s="12">
         <v>0</v>
       </c>
-      <c r="AK11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="18">
+      <c r="AK11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="17">
         <v>0</v>
       </c>
       <c r="AM11" s="9">
@@ -2435,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="4" customFormat="1">
+    <row r="12" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1976</v>
       </c>
@@ -2545,10 +2537,10 @@
       <c r="AJ12" s="12">
         <v>0</v>
       </c>
-      <c r="AK12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="18">
+      <c r="AK12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="17">
         <v>0</v>
       </c>
       <c r="AM12" s="9">
@@ -2558,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="4" customFormat="1">
+    <row r="13" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1977</v>
       </c>
@@ -2668,10 +2660,10 @@
       <c r="AJ13" s="12">
         <v>0</v>
       </c>
-      <c r="AK13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="18">
+      <c r="AK13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="17">
         <v>0</v>
       </c>
       <c r="AM13" s="9">
@@ -2681,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="4" customFormat="1">
+    <row r="14" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1978</v>
       </c>
@@ -2791,10 +2783,10 @@
       <c r="AJ14" s="12">
         <v>0</v>
       </c>
-      <c r="AK14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="18">
+      <c r="AK14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="17">
         <v>0</v>
       </c>
       <c r="AM14" s="9">
@@ -2804,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="4" customFormat="1">
+    <row r="15" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1979</v>
       </c>
@@ -2914,10 +2906,10 @@
       <c r="AJ15" s="12">
         <v>0</v>
       </c>
-      <c r="AK15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="18">
+      <c r="AK15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="17">
         <v>0</v>
       </c>
       <c r="AM15" s="9">
@@ -2927,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="4" customFormat="1">
+    <row r="16" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1980</v>
       </c>
@@ -3037,10 +3029,10 @@
       <c r="AJ16" s="12">
         <v>0</v>
       </c>
-      <c r="AK16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="18">
+      <c r="AK16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="17">
         <v>0</v>
       </c>
       <c r="AM16" s="9">
@@ -3050,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="4" customFormat="1">
+    <row r="17" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1981</v>
       </c>
@@ -3160,10 +3152,10 @@
       <c r="AJ17" s="12">
         <v>0</v>
       </c>
-      <c r="AK17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="18">
+      <c r="AK17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="17">
         <v>0</v>
       </c>
       <c r="AM17" s="9">
@@ -3173,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="4" customFormat="1">
+    <row r="18" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1982</v>
       </c>
@@ -3283,10 +3275,10 @@
       <c r="AJ18" s="12">
         <v>0</v>
       </c>
-      <c r="AK18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="18">
+      <c r="AK18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="17">
         <v>0</v>
       </c>
       <c r="AM18" s="9">
@@ -3296,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="4" customFormat="1">
+    <row r="19" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1983</v>
       </c>
@@ -3406,10 +3398,10 @@
       <c r="AJ19" s="12">
         <v>0</v>
       </c>
-      <c r="AK19" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="18">
+      <c r="AK19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="17">
         <v>0</v>
       </c>
       <c r="AM19" s="9">
@@ -3419,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="4" customFormat="1">
+    <row r="20" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1984</v>
       </c>
@@ -3529,10 +3521,10 @@
       <c r="AJ20" s="12">
         <v>0</v>
       </c>
-      <c r="AK20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="18">
+      <c r="AK20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="17">
         <v>0</v>
       </c>
       <c r="AM20" s="9">
@@ -3542,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="4" customFormat="1">
+    <row r="21" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1985</v>
       </c>
@@ -3652,10 +3644,10 @@
       <c r="AJ21" s="12">
         <v>0</v>
       </c>
-      <c r="AK21" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="18">
+      <c r="AK21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="17">
         <v>0</v>
       </c>
       <c r="AM21" s="9">
@@ -3665,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="4" customFormat="1">
+    <row r="22" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1986</v>
       </c>
@@ -3775,10 +3767,10 @@
       <c r="AJ22" s="12">
         <v>0</v>
       </c>
-      <c r="AK22" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="18">
+      <c r="AK22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="17">
         <v>0</v>
       </c>
       <c r="AM22" s="9">
@@ -3788,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="4" customFormat="1">
+    <row r="23" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1987</v>
       </c>
@@ -3898,10 +3890,10 @@
       <c r="AJ23" s="12">
         <v>0</v>
       </c>
-      <c r="AK23" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="18">
+      <c r="AK23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="17">
         <v>0</v>
       </c>
       <c r="AM23" s="9">
@@ -3911,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="4" customFormat="1">
+    <row r="24" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1988</v>
       </c>
@@ -4021,10 +4013,10 @@
       <c r="AJ24" s="12">
         <v>0</v>
       </c>
-      <c r="AK24" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="18">
+      <c r="AK24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="17">
         <v>0</v>
       </c>
       <c r="AM24" s="9">
@@ -4034,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="4" customFormat="1">
+    <row r="25" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1989</v>
       </c>
@@ -4144,10 +4136,10 @@
       <c r="AJ25" s="12">
         <v>0</v>
       </c>
-      <c r="AK25" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="18">
+      <c r="AK25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="17">
         <v>0</v>
       </c>
       <c r="AM25" s="9">
@@ -4157,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="4" customFormat="1">
+    <row r="26" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1990</v>
       </c>
@@ -4267,10 +4259,10 @@
       <c r="AJ26" s="12">
         <v>0</v>
       </c>
-      <c r="AK26" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="18">
+      <c r="AK26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="17">
         <v>0</v>
       </c>
       <c r="AM26" s="9">
@@ -4280,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="4" customFormat="1">
+    <row r="27" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1991</v>
       </c>
@@ -4390,10 +4382,10 @@
       <c r="AJ27" s="12">
         <v>0</v>
       </c>
-      <c r="AK27" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="18">
+      <c r="AK27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="17">
         <v>0</v>
       </c>
       <c r="AM27" s="9">
@@ -4403,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="4" customFormat="1">
+    <row r="28" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1992</v>
       </c>
@@ -4513,10 +4505,10 @@
       <c r="AJ28" s="12">
         <v>0</v>
       </c>
-      <c r="AK28" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="18">
+      <c r="AK28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="17">
         <v>0</v>
       </c>
       <c r="AM28" s="9">
@@ -4526,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="4" customFormat="1">
+    <row r="29" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1993</v>
       </c>
@@ -4636,10 +4628,10 @@
       <c r="AJ29" s="12">
         <v>0</v>
       </c>
-      <c r="AK29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="18">
+      <c r="AK29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="17">
         <v>0</v>
       </c>
       <c r="AM29" s="9">
@@ -4649,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="4" customFormat="1">
+    <row r="30" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1994</v>
       </c>
@@ -4759,10 +4751,10 @@
       <c r="AJ30" s="12">
         <v>0</v>
       </c>
-      <c r="AK30" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="18">
+      <c r="AK30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="17">
         <v>0</v>
       </c>
       <c r="AM30" s="9">
@@ -4772,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="4" customFormat="1">
+    <row r="31" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1995</v>
       </c>
@@ -4882,10 +4874,10 @@
       <c r="AJ31" s="12">
         <v>0</v>
       </c>
-      <c r="AK31" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="18">
+      <c r="AK31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="17">
         <v>0</v>
       </c>
       <c r="AM31" s="9">
@@ -4895,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="4" customFormat="1">
+    <row r="32" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1996</v>
       </c>
@@ -5005,10 +4997,10 @@
       <c r="AJ32" s="12">
         <v>0</v>
       </c>
-      <c r="AK32" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="18">
+      <c r="AK32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="17">
         <v>0</v>
       </c>
       <c r="AM32" s="9">
@@ -5018,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="4" customFormat="1">
+    <row r="33" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1997</v>
       </c>
@@ -5128,10 +5120,10 @@
       <c r="AJ33" s="12">
         <v>0</v>
       </c>
-      <c r="AK33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="18">
+      <c r="AK33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="17">
         <v>0</v>
       </c>
       <c r="AM33" s="9">
@@ -5141,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" s="4" customFormat="1">
+    <row r="34" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1998</v>
       </c>
@@ -5251,10 +5243,10 @@
       <c r="AJ34" s="12">
         <v>0</v>
       </c>
-      <c r="AK34" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="18">
+      <c r="AK34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="17">
         <v>0</v>
       </c>
       <c r="AM34" s="9">
@@ -5264,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" s="4" customFormat="1">
+    <row r="35" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1999</v>
       </c>
@@ -5374,10 +5366,10 @@
       <c r="AJ35" s="12">
         <v>0</v>
       </c>
-      <c r="AK35" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="18">
+      <c r="AK35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="17">
         <v>0</v>
       </c>
       <c r="AM35" s="9">
@@ -5387,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="4" customFormat="1">
+    <row r="36" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2000</v>
       </c>
@@ -5497,10 +5489,10 @@
       <c r="AJ36" s="12">
         <v>0</v>
       </c>
-      <c r="AK36" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="18">
+      <c r="AK36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="17">
         <v>0</v>
       </c>
       <c r="AM36" s="9">
@@ -5510,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" s="4" customFormat="1">
+    <row r="37" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2001</v>
       </c>
@@ -5620,10 +5612,10 @@
       <c r="AJ37" s="12">
         <v>0</v>
       </c>
-      <c r="AK37" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="18">
+      <c r="AK37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="17">
         <v>0</v>
       </c>
       <c r="AM37" s="9">
@@ -5633,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" s="4" customFormat="1">
+    <row r="38" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2002</v>
       </c>
@@ -5743,10 +5735,10 @@
       <c r="AJ38" s="12">
         <v>0</v>
       </c>
-      <c r="AK38" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="18">
+      <c r="AK38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="17">
         <v>0</v>
       </c>
       <c r="AM38" s="9">
@@ -5756,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:40" s="4" customFormat="1">
+    <row r="39" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2003</v>
       </c>
@@ -5866,10 +5858,10 @@
       <c r="AJ39" s="12">
         <v>0</v>
       </c>
-      <c r="AK39" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="18">
+      <c r="AK39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="17">
         <v>0</v>
       </c>
       <c r="AM39" s="9">
@@ -5879,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40" s="4" customFormat="1">
+    <row r="40" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2004</v>
       </c>
@@ -5989,10 +5981,10 @@
       <c r="AJ40" s="12">
         <v>0</v>
       </c>
-      <c r="AK40" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="18">
+      <c r="AK40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="17">
         <v>0</v>
       </c>
       <c r="AM40" s="9">
@@ -6002,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" s="4" customFormat="1">
+    <row r="41" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2005</v>
       </c>
@@ -6112,10 +6104,10 @@
       <c r="AJ41" s="12">
         <v>0</v>
       </c>
-      <c r="AK41" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="18">
+      <c r="AK41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="17">
         <v>0</v>
       </c>
       <c r="AM41" s="9">
@@ -6125,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="4" customFormat="1">
+    <row r="42" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2006</v>
       </c>
@@ -6235,10 +6227,10 @@
       <c r="AJ42" s="12">
         <v>0</v>
       </c>
-      <c r="AK42" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="18">
+      <c r="AK42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="17">
         <v>0</v>
       </c>
       <c r="AM42" s="9">
@@ -6248,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="4" customFormat="1">
+    <row r="43" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2007</v>
       </c>
@@ -6358,10 +6350,10 @@
       <c r="AJ43" s="12">
         <v>0</v>
       </c>
-      <c r="AK43" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="18">
+      <c r="AK43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="17">
         <v>0</v>
       </c>
       <c r="AM43" s="9">
@@ -6371,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="4" customFormat="1">
+    <row r="44" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2008</v>
       </c>
@@ -6481,10 +6473,10 @@
       <c r="AJ44" s="12">
         <v>0</v>
       </c>
-      <c r="AK44" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="18">
+      <c r="AK44" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="17">
         <v>0</v>
       </c>
       <c r="AM44" s="9">
@@ -6494,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:40" s="4" customFormat="1">
+    <row r="45" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2009</v>
       </c>
@@ -6604,10 +6596,10 @@
       <c r="AJ45" s="12">
         <v>0</v>
       </c>
-      <c r="AK45" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="18">
+      <c r="AK45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="17">
         <v>0</v>
       </c>
       <c r="AM45" s="9">
@@ -6617,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:40" s="4" customFormat="1">
+    <row r="46" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2010</v>
       </c>
@@ -6727,10 +6719,10 @@
       <c r="AJ46" s="12">
         <v>0</v>
       </c>
-      <c r="AK46" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL46" s="18">
+      <c r="AK46" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="17">
         <v>0</v>
       </c>
       <c r="AM46" s="9">
@@ -6740,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" s="4" customFormat="1">
+    <row r="47" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2011</v>
       </c>
@@ -6850,10 +6842,10 @@
       <c r="AJ47" s="12">
         <v>0</v>
       </c>
-      <c r="AK47" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL47" s="18">
+      <c r="AK47" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="17">
         <v>0</v>
       </c>
       <c r="AM47" s="9">
@@ -6863,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" s="4" customFormat="1">
+    <row r="48" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2012</v>
       </c>
@@ -6973,10 +6965,10 @@
       <c r="AJ48" s="12">
         <v>0</v>
       </c>
-      <c r="AK48" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL48" s="18">
+      <c r="AK48" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="17">
         <v>0</v>
       </c>
       <c r="AM48" s="9">
@@ -6986,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:40" s="4" customFormat="1">
+    <row r="49" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2013</v>
       </c>
@@ -7096,10 +7088,10 @@
       <c r="AJ49" s="12">
         <v>0</v>
       </c>
-      <c r="AK49" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL49" s="18">
+      <c r="AK49" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="17">
         <v>0</v>
       </c>
       <c r="AM49" s="9">
@@ -7109,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:40" s="4" customFormat="1">
+    <row r="50" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2014</v>
       </c>
@@ -7219,10 +7211,10 @@
       <c r="AJ50" s="12">
         <v>0</v>
       </c>
-      <c r="AK50" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL50" s="18">
+      <c r="AK50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="17">
         <v>0</v>
       </c>
       <c r="AM50" s="9">
@@ -7232,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" s="4" customFormat="1">
+    <row r="51" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2015</v>
       </c>
@@ -7343,10 +7335,10 @@
       <c r="AJ51" s="12">
         <v>0</v>
       </c>
-      <c r="AK51" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL51" s="18">
+      <c r="AK51" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="17">
         <v>0</v>
       </c>
       <c r="AM51" s="9">
@@ -7356,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:40" s="4" customFormat="1">
+    <row r="52" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2016</v>
       </c>
@@ -7466,10 +7458,10 @@
       <c r="AJ52" s="12">
         <v>0</v>
       </c>
-      <c r="AK52" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL52" s="18">
+      <c r="AK52" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="17">
         <v>0</v>
       </c>
       <c r="AM52" s="9">
@@ -7479,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:40" s="4" customFormat="1">
+    <row r="53" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2017</v>
       </c>
@@ -7589,10 +7581,10 @@
       <c r="AJ53" s="12">
         <v>0</v>
       </c>
-      <c r="AK53" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL53" s="18">
+      <c r="AK53" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="17">
         <v>0</v>
       </c>
       <c r="AM53" s="9">
@@ -7602,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:40" s="4" customFormat="1">
+    <row r="54" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2018</v>
       </c>
@@ -7712,10 +7704,10 @@
       <c r="AJ54" s="12">
         <v>0</v>
       </c>
-      <c r="AK54" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL54" s="18">
+      <c r="AK54" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="17">
         <v>0</v>
       </c>
       <c r="AM54" s="9">
@@ -7725,14 +7717,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:40" s="4" customFormat="1">
-      <c r="A55" s="15">
+    <row r="55" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
         <v>2019</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="18">
         <v>57400</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="18">
         <v>3500</v>
       </c>
       <c r="D55" s="10">
@@ -7741,7 +7733,7 @@
       <c r="E55" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="19">
         <v>0.108</v>
       </c>
       <c r="G55" s="10">
@@ -7750,76 +7742,76 @@
       <c r="H55" s="10">
         <v>0.06</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="19">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="18">
         <v>5</v>
       </c>
       <c r="K55" s="12">
         <v>0.25</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L55" s="18">
         <v>0.15</v>
       </c>
-      <c r="M55" s="25">
+      <c r="M55" s="18">
         <v>496.33</v>
       </c>
-      <c r="N55" s="25">
+      <c r="N55" s="18">
         <v>496.33</v>
       </c>
-      <c r="O55" s="25">
+      <c r="O55" s="18">
         <v>460.85</v>
       </c>
-      <c r="P55" s="25">
+      <c r="P55" s="18">
         <v>127.12</v>
       </c>
-      <c r="Q55" s="13">
+      <c r="Q55" s="21">
         <v>13854.96</v>
       </c>
-      <c r="R55" s="13">
+      <c r="R55" s="21">
         <v>13854.96</v>
       </c>
-      <c r="S55" s="20">
+      <c r="S55" s="18">
         <v>45</v>
       </c>
-      <c r="T55" s="20">
-        <v>65</v>
-      </c>
-      <c r="U55" s="20">
+      <c r="T55" s="18">
+        <v>65</v>
+      </c>
+      <c r="U55" s="18">
         <v>0.375</v>
       </c>
-      <c r="V55" s="20">
+      <c r="V55" s="18">
         <v>0.6</v>
       </c>
-      <c r="W55" s="20">
+      <c r="W55" s="18">
         <v>60</v>
       </c>
-      <c r="X55" s="20">
-        <v>65</v>
-      </c>
-      <c r="Y55" s="20">
+      <c r="X55" s="18">
+        <v>65</v>
+      </c>
+      <c r="Y55" s="18">
         <v>70</v>
       </c>
       <c r="Z55" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA55" s="20">
+      <c r="AA55" s="18">
         <v>0.75</v>
       </c>
-      <c r="AB55" s="25">
+      <c r="AB55" s="18">
         <v>496.33</v>
       </c>
-      <c r="AC55" s="24">
+      <c r="AC55" s="19">
         <v>2.3E-2</v>
       </c>
       <c r="AD55" s="12">
         <v>1</v>
       </c>
-      <c r="AE55" s="21">
+      <c r="AE55" s="19">
         <v>1.5E-3</v>
       </c>
-      <c r="AF55" s="24">
+      <c r="AF55" s="19">
         <v>1.5E-3</v>
       </c>
       <c r="AG55" s="12">
@@ -7828,16 +7820,16 @@
       <c r="AH55" s="12">
         <v>0</v>
       </c>
-      <c r="AI55" s="24">
+      <c r="AI55" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AJ55" s="12">
         <v>0</v>
       </c>
-      <c r="AK55" s="19">
+      <c r="AK55" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL55" s="19">
+      <c r="AL55" s="20">
         <v>0</v>
       </c>
       <c r="AM55" s="10">
@@ -7847,14 +7839,14 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:40" s="4" customFormat="1">
-      <c r="A56" s="15">
+    <row r="56" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
         <v>2020</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="18">
         <v>58700</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="18">
         <v>3500</v>
       </c>
       <c r="D56" s="10">
@@ -7863,7 +7855,7 @@
       <c r="E56" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="19">
         <v>0.108</v>
       </c>
       <c r="G56" s="10">
@@ -7872,76 +7864,76 @@
       <c r="H56" s="10">
         <v>0.06</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="19">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="18">
         <v>5</v>
       </c>
       <c r="K56" s="12">
         <v>0.25</v>
       </c>
-      <c r="L56" s="22">
+      <c r="L56" s="18">
         <v>0.15</v>
       </c>
-      <c r="M56" s="25">
+      <c r="M56" s="18">
         <v>505.76</v>
       </c>
-      <c r="N56" s="25">
+      <c r="N56" s="18">
         <v>505.76</v>
       </c>
-      <c r="O56" s="25">
+      <c r="O56" s="18">
         <v>469.61</v>
       </c>
-      <c r="P56" s="25">
+      <c r="P56" s="18">
         <v>129.54</v>
       </c>
-      <c r="Q56" s="13">
+      <c r="Q56" s="21">
         <v>14127.6</v>
       </c>
-      <c r="R56" s="13">
+      <c r="R56" s="21">
         <v>14127.6</v>
       </c>
-      <c r="S56" s="20">
+      <c r="S56" s="18">
         <v>45</v>
       </c>
-      <c r="T56" s="20">
-        <v>65</v>
-      </c>
-      <c r="U56" s="20">
+      <c r="T56" s="18">
+        <v>65</v>
+      </c>
+      <c r="U56" s="18">
         <v>0.375</v>
       </c>
-      <c r="V56" s="20">
+      <c r="V56" s="18">
         <v>0.6</v>
       </c>
-      <c r="W56" s="20">
+      <c r="W56" s="18">
         <v>60</v>
       </c>
-      <c r="X56" s="20">
-        <v>65</v>
-      </c>
-      <c r="Y56" s="20">
+      <c r="X56" s="18">
+        <v>65</v>
+      </c>
+      <c r="Y56" s="18">
         <v>70</v>
       </c>
       <c r="Z56" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA56" s="20">
+      <c r="AA56" s="18">
         <v>0.75</v>
       </c>
-      <c r="AB56" s="25">
+      <c r="AB56" s="18">
         <v>505.76</v>
       </c>
-      <c r="AC56" s="24">
+      <c r="AC56" s="19">
         <v>1.9E-2</v>
       </c>
       <c r="AD56" s="12">
         <v>1</v>
       </c>
-      <c r="AE56" s="21">
+      <c r="AE56" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AF56" s="24">
+      <c r="AF56" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AG56" s="12">
@@ -7950,16 +7942,16 @@
       <c r="AH56" s="12">
         <v>0</v>
       </c>
-      <c r="AI56" s="24">
+      <c r="AI56" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AJ56" s="12">
         <v>0</v>
       </c>
-      <c r="AK56" s="19">
+      <c r="AK56" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL56" s="19">
+      <c r="AL56" s="20">
         <v>0</v>
       </c>
       <c r="AM56" s="10">
@@ -7969,14 +7961,14 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:40" s="4" customFormat="1">
-      <c r="A57" s="15">
+    <row r="57" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
         <v>2021</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="18">
         <v>61600</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="18">
         <v>3500</v>
       </c>
       <c r="D57" s="10">
@@ -7994,80 +7986,80 @@
       <c r="H57" s="10">
         <v>0.06</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="19">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="18">
         <v>5</v>
       </c>
       <c r="K57" s="12">
         <v>0.25</v>
       </c>
-      <c r="L57" s="22">
+      <c r="L57" s="18">
         <v>0.15</v>
       </c>
-      <c r="M57" s="25">
+      <c r="M57" s="18">
         <f>M56*(1+AC57)</f>
         <v>510.81759999999997</v>
       </c>
-      <c r="N57" s="25">
+      <c r="N57" s="18">
         <f>N56*(1+AC57)</f>
         <v>510.81759999999997</v>
       </c>
-      <c r="O57" s="25">
+      <c r="O57" s="18">
         <f>O56*(1+AC57)</f>
         <v>474.30610000000001</v>
       </c>
-      <c r="P57" s="25">
+      <c r="P57" s="18">
         <f>P56*(1+AC57)</f>
         <v>130.83539999999999</v>
       </c>
-      <c r="Q57" s="13">
+      <c r="Q57" s="21">
         <v>14499.12</v>
       </c>
-      <c r="R57" s="13">
+      <c r="R57" s="21">
         <v>14499.12</v>
       </c>
-      <c r="S57" s="20">
+      <c r="S57" s="18">
         <v>45</v>
       </c>
-      <c r="T57" s="20">
-        <v>65</v>
-      </c>
-      <c r="U57" s="20">
+      <c r="T57" s="18">
+        <v>65</v>
+      </c>
+      <c r="U57" s="18">
         <v>0.375</v>
       </c>
-      <c r="V57" s="20">
+      <c r="V57" s="18">
         <v>0.6</v>
       </c>
-      <c r="W57" s="20">
+      <c r="W57" s="18">
         <v>60</v>
       </c>
-      <c r="X57" s="20">
-        <v>65</v>
-      </c>
-      <c r="Y57" s="20">
+      <c r="X57" s="18">
+        <v>65</v>
+      </c>
+      <c r="Y57" s="18">
         <v>70</v>
       </c>
       <c r="Z57" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA57" s="20">
+      <c r="AA57" s="18">
         <v>0.75</v>
       </c>
-      <c r="AB57" s="25">
+      <c r="AB57" s="18">
         <v>510.82</v>
       </c>
-      <c r="AC57" s="24">
+      <c r="AC57" s="19">
         <v>0.01</v>
       </c>
       <c r="AD57" s="12">
         <v>1</v>
       </c>
-      <c r="AE57" s="21">
+      <c r="AE57" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AF57" s="24">
+      <c r="AF57" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG57" s="12">
@@ -8076,16 +8068,16 @@
       <c r="AH57" s="12">
         <v>0</v>
       </c>
-      <c r="AI57" s="24">
+      <c r="AI57" s="19">
         <v>0.01</v>
       </c>
       <c r="AJ57" s="12">
         <v>0</v>
       </c>
-      <c r="AK57" s="19">
+      <c r="AK57" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL57" s="19">
+      <c r="AL57" s="20">
         <v>0</v>
       </c>
       <c r="AM57" s="10">
@@ -8095,24 +8087,23 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:40" s="4" customFormat="1">
-      <c r="A58" s="15">
+    <row r="58" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
         <v>2022</v>
       </c>
-      <c r="B58" s="11">
-        <f t="shared" ref="B58:B61" si="1">B57*1.0159</f>
-        <v>62579.44</v>
-      </c>
-      <c r="C58" s="11">
+      <c r="B58" s="18">
+        <v>64900</v>
+      </c>
+      <c r="C58" s="18">
         <v>3500</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="19">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="19">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="19">
         <v>0.108</v>
       </c>
       <c r="G58" s="10">
@@ -8121,7 +8112,7 @@
       <c r="H58" s="10">
         <v>0.06</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="16">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="J58" s="11">
@@ -8130,7 +8121,7 @@
       <c r="K58" s="12">
         <v>0.25</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="18">
         <v>0.15</v>
       </c>
       <c r="M58" s="11">
@@ -8142,19 +8133,19 @@
         <v>519.37379480000004</v>
       </c>
       <c r="O58" s="11">
-        <f t="shared" ref="O58:P61" si="2">O57*(1+$AC58)</f>
+        <f t="shared" ref="O58:P61" si="1">O57*(1+$AC58)</f>
         <v>482.25072717500001</v>
       </c>
       <c r="P58" s="11">
+        <f t="shared" si="1"/>
+        <v>133.02689294999999</v>
+      </c>
+      <c r="Q58" s="13">
+        <f t="shared" ref="Q58:R61" si="2">Q57*1.03</f>
+        <v>14934.093600000002</v>
+      </c>
+      <c r="R58" s="13">
         <f t="shared" si="2"/>
-        <v>133.02689294999999</v>
-      </c>
-      <c r="Q58" s="14">
-        <f t="shared" ref="Q58:R61" si="3">Q57*1.03</f>
-        <v>14934.093600000002</v>
-      </c>
-      <c r="R58" s="14">
-        <f t="shared" si="3"/>
         <v>14934.093600000002</v>
       </c>
       <c r="S58" s="11">
@@ -8185,19 +8176,19 @@
         <v>0.75</v>
       </c>
       <c r="AB58" s="11">
-        <f t="shared" ref="AB58:AB61" si="4">AB57*1.03</f>
+        <f t="shared" ref="AB58:AB61" si="3">AB57*1.03</f>
         <v>526.14459999999997</v>
       </c>
-      <c r="AC58" s="17">
+      <c r="AC58" s="16">
         <v>1.6750000000000001E-2</v>
       </c>
       <c r="AD58" s="12">
         <v>1</v>
       </c>
-      <c r="AE58" s="17">
+      <c r="AE58" s="19">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF58" s="11">
+      <c r="AF58" s="19">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="AG58" s="12">
@@ -8206,16 +8197,16 @@
       <c r="AH58" s="12">
         <v>0</v>
       </c>
-      <c r="AI58" s="11">
+      <c r="AI58" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AJ58" s="12">
         <v>0</v>
       </c>
-      <c r="AK58" s="19">
+      <c r="AK58" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL58" s="19">
+      <c r="AL58" s="20">
         <v>0</v>
       </c>
       <c r="AM58" s="10">
@@ -8225,24 +8216,24 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:40" s="4" customFormat="1">
-      <c r="A59" s="15">
+    <row r="59" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
         <v>2023</v>
       </c>
       <c r="B59" s="11">
-        <f t="shared" si="1"/>
-        <v>63574.453096000005</v>
+        <f t="shared" ref="B58:B61" si="4">B58*1.0159</f>
+        <v>65931.91</v>
       </c>
       <c r="C59" s="11">
         <v>3500</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="16">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="16">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="16">
         <v>0.108</v>
       </c>
       <c r="G59" s="10">
@@ -8251,7 +8242,7 @@
       <c r="H59" s="10">
         <v>0.06</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="16">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="J59" s="11">
@@ -8272,19 +8263,19 @@
         <v>528.07330586290004</v>
       </c>
       <c r="O59" s="11">
+        <f t="shared" si="1"/>
+        <v>490.32842685518131</v>
+      </c>
+      <c r="P59" s="11">
+        <f t="shared" si="1"/>
+        <v>135.25509340691249</v>
+      </c>
+      <c r="Q59" s="13">
         <f t="shared" si="2"/>
-        <v>490.32842685518131</v>
-      </c>
-      <c r="P59" s="11">
+        <v>15382.116408000002</v>
+      </c>
+      <c r="R59" s="13">
         <f t="shared" si="2"/>
-        <v>135.25509340691249</v>
-      </c>
-      <c r="Q59" s="14">
-        <f t="shared" si="3"/>
-        <v>15382.116408000002</v>
-      </c>
-      <c r="R59" s="14">
-        <f t="shared" si="3"/>
         <v>15382.116408000002</v>
       </c>
       <c r="S59" s="11">
@@ -8315,16 +8306,16 @@
         <v>0.75</v>
       </c>
       <c r="AB59" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>541.92893800000002</v>
       </c>
-      <c r="AC59" s="17">
+      <c r="AC59" s="16">
         <v>1.6750000000000001E-2</v>
       </c>
       <c r="AD59" s="12">
         <v>1</v>
       </c>
-      <c r="AE59" s="17">
+      <c r="AE59" s="16">
         <v>0.01</v>
       </c>
       <c r="AF59" s="11">
@@ -8336,16 +8327,16 @@
       <c r="AH59" s="12">
         <v>0</v>
       </c>
-      <c r="AI59" s="11">
+      <c r="AI59" s="15">
         <v>0.02</v>
       </c>
       <c r="AJ59" s="12">
         <v>0</v>
       </c>
-      <c r="AK59" s="19">
+      <c r="AK59" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL59" s="19">
+      <c r="AL59" s="20">
         <v>0</v>
       </c>
       <c r="AM59" s="10">
@@ -8355,24 +8346,24 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:40" s="4" customFormat="1">
-      <c r="A60" s="15">
+    <row r="60" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
         <v>2024</v>
       </c>
       <c r="B60" s="11">
-        <f t="shared" si="1"/>
-        <v>64585.286900226405</v>
+        <f t="shared" si="4"/>
+        <v>66980.227369</v>
       </c>
       <c r="C60" s="11">
         <v>3500</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="16">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="16">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <v>0.108</v>
       </c>
       <c r="G60" s="10">
@@ -8381,7 +8372,7 @@
       <c r="H60" s="10">
         <v>0.06</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="16">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="J60" s="11">
@@ -8402,19 +8393,19 @@
         <v>536.91853373610365</v>
       </c>
       <c r="O60" s="11">
+        <f t="shared" si="1"/>
+        <v>498.54142800500563</v>
+      </c>
+      <c r="P60" s="11">
+        <f t="shared" si="1"/>
+        <v>137.52061622147829</v>
+      </c>
+      <c r="Q60" s="13">
         <f t="shared" si="2"/>
-        <v>498.54142800500563</v>
-      </c>
-      <c r="P60" s="11">
+        <v>15843.579900240002</v>
+      </c>
+      <c r="R60" s="13">
         <f t="shared" si="2"/>
-        <v>137.52061622147829</v>
-      </c>
-      <c r="Q60" s="14">
-        <f t="shared" si="3"/>
-        <v>15843.579900240002</v>
-      </c>
-      <c r="R60" s="14">
-        <f t="shared" si="3"/>
         <v>15843.579900240002</v>
       </c>
       <c r="S60" s="11">
@@ -8445,16 +8436,16 @@
         <v>0.75</v>
       </c>
       <c r="AB60" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>558.18680614000004</v>
       </c>
-      <c r="AC60" s="17">
+      <c r="AC60" s="16">
         <v>1.6750000000000001E-2</v>
       </c>
       <c r="AD60" s="11">
         <v>1.07</v>
       </c>
-      <c r="AE60" s="17">
+      <c r="AE60" s="16">
         <v>0.01</v>
       </c>
       <c r="AF60" s="11">
@@ -8466,16 +8457,16 @@
       <c r="AH60" s="11">
         <v>0.04</v>
       </c>
-      <c r="AI60" s="11">
+      <c r="AI60" s="15">
         <v>0.02</v>
       </c>
       <c r="AJ60" s="11">
         <v>0.08</v>
       </c>
-      <c r="AK60" s="19">
+      <c r="AK60" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL60" s="19">
+      <c r="AL60" s="20">
         <v>0.33329999999999999</v>
       </c>
       <c r="AM60" s="10">
@@ -8485,24 +8476,24 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:40" s="4" customFormat="1">
-      <c r="A61" s="15">
+    <row r="61" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
         <v>2025</v>
       </c>
       <c r="B61" s="11">
-        <f t="shared" si="1"/>
-        <v>65612.192961940003</v>
+        <f t="shared" si="4"/>
+        <v>68045.212984167098</v>
       </c>
       <c r="C61" s="11">
         <v>3500</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="16">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="16">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="16">
         <v>0.108</v>
       </c>
       <c r="G61" s="10">
@@ -8511,7 +8502,7 @@
       <c r="H61" s="10">
         <v>0.06</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="16">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="J61" s="11">
@@ -8532,19 +8523,19 @@
         <v>545.91191917618346</v>
       </c>
       <c r="O61" s="11">
+        <f t="shared" si="1"/>
+        <v>506.89199692408948</v>
+      </c>
+      <c r="P61" s="11">
+        <f t="shared" si="1"/>
+        <v>139.82408654318806</v>
+      </c>
+      <c r="Q61" s="13">
         <f t="shared" si="2"/>
-        <v>506.89199692408948</v>
-      </c>
-      <c r="P61" s="11">
+        <v>16318.887297247202</v>
+      </c>
+      <c r="R61" s="13">
         <f t="shared" si="2"/>
-        <v>139.82408654318806</v>
-      </c>
-      <c r="Q61" s="14">
-        <f t="shared" si="3"/>
-        <v>16318.887297247202</v>
-      </c>
-      <c r="R61" s="14">
-        <f t="shared" si="3"/>
         <v>16318.887297247202</v>
       </c>
       <c r="S61" s="11">
@@ -8575,16 +8566,16 @@
         <v>0.75</v>
       </c>
       <c r="AB61" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>574.93241032420008</v>
       </c>
-      <c r="AC61" s="17">
+      <c r="AC61" s="16">
         <v>1.6750000000000001E-2</v>
       </c>
       <c r="AD61" s="11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AE61" s="17">
+      <c r="AE61" s="16">
         <v>0.01</v>
       </c>
       <c r="AF61" s="11">
@@ -8596,16 +8587,16 @@
       <c r="AH61" s="11">
         <v>0.04</v>
       </c>
-      <c r="AI61" s="11">
+      <c r="AI61" s="15">
         <v>0.02</v>
       </c>
       <c r="AJ61" s="11">
         <v>0.08</v>
       </c>
-      <c r="AK61" s="19">
+      <c r="AK61" s="20">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL61" s="19">
+      <c r="AL61" s="20">
         <v>0.33329999999999999</v>
       </c>
       <c r="AM61" s="10">
